--- a/manual_download/Berliner Werstätten für Menschen mit Behinderung/Endgultiger Bericht JAP 2022 BWB.xlsx
+++ b/manual_download/Berliner Werstätten für Menschen mit Behinderung/Endgultiger Bericht JAP 2022 BWB.xlsx
@@ -360,7 +360,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="13:13"/>
+      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -433,10 +433,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1341821.55</v>
+        <v>49612</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1382595.95</v>
+        <v>22819</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -450,10 +450,10 @@
         <v>12</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>32348530.94</v>
+        <v>7722276.16</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>32901932.92</v>
+        <v>7879739.16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -467,10 +467,10 @@
         <v>13</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>6555969.07</v>
+        <v>867321</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>6622126.94</v>
+        <v>967049</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -484,10 +484,10 @@
         <v>14</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>686201.75</v>
+        <v>1203666</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>7052054.02</v>
+        <v>1403976</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -528,6 +528,12 @@
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D11" s="2" t="n">
+        <v>1559351.47</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>1559351.47</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -539,12 +545,6 @@
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="2" t="n">
-        <v>1559351.47</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>1559351.47</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
@@ -600,6 +600,12 @@
       <c r="C17" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D17" s="2" t="n">
+        <v>156590.63</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>140591.94</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
@@ -611,6 +617,12 @@
       <c r="C18" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="D18" s="2" t="n">
+        <v>82290.3</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>78188.02</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
@@ -622,6 +634,12 @@
       <c r="C19" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="D19" s="2" t="n">
+        <v>49184.19</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>43639.95</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
@@ -644,6 +662,12 @@
       <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="D21" s="2" t="n">
+        <v>2408669.73</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>3047993.09</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
@@ -677,6 +701,12 @@
       <c r="C24" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="D24" s="2" t="n">
+        <v>606983.33</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>522238.46</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
@@ -706,11 +736,23 @@
       </c>
       <c r="B27" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>20186852.78</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>1636513711</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>63929.27</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>94859.6</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/manual_download/Berliner Werstätten für Menschen mit Behinderung/Endgultiger Bericht JAP 2022 BWB.xlsx
+++ b/manual_download/Berliner Werstätten für Menschen mit Behinderung/Endgultiger Bericht JAP 2022 BWB.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="42">
   <si>
     <t xml:space="preserve">E1</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t xml:space="preserve">Kassenbestand, Bundesbankguthaben, Guthaben bei Kreditinstituten und Schecks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16365137,11</t>
   </si>
   <si>
     <t xml:space="preserve">Rechnungsabgrenzungsposten</t>
@@ -359,7 +362,7 @@
   </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -740,13 +743,13 @@
       <c r="D27" s="2" t="n">
         <v>20186852.78</v>
       </c>
-      <c r="E27" s="2" t="n">
-        <v>1636513711</v>
+      <c r="E27" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>63929.27</v>
@@ -757,12 +760,12 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
